--- a/biology/Zoologie/Guanobie/Guanobie.xlsx
+++ b/biology/Zoologie/Guanobie/Guanobie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les organismes guanobies sont en biospéologie l'ensemble des bactéries, champignons et animaux vivant dans ou près des déjections — le guano — de chauves-souris ou d'oiseaux vivants dans les grottes comme les salanganes.
 La faune particulière se développant sur les tas de guano est notamment constituée de gastéropodes et d'arthropodes de toutes sortes (arachnides, mille-pattes et insectes), troglophiles ou troglobies.
